--- a/data/Dummy Data.xlsx
+++ b/data/Dummy Data.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>Company A</t>
   </si>
@@ -47,6 +48,12 @@
   </si>
   <si>
     <t>Units CEF</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -148,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -173,6 +180,9 @@
     <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -182,6 +192,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -501,6 +515,9 @@
       <c r="H12" s="4">
         <v>23.0</v>
       </c>
+      <c r="I12" s="4">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="G13" s="4" t="s">
@@ -509,6 +526,9 @@
       <c r="H13" s="4">
         <v>12.2</v>
       </c>
+      <c r="I13" s="4">
+        <v>-123.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="G14" s="4" t="s">
@@ -517,6 +537,9 @@
       <c r="H14" s="4">
         <v>324.0</v>
       </c>
+      <c r="I14" s="4">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="G15" s="4" t="s">
@@ -525,14 +548,309 @@
       <c r="H15" s="4">
         <v>324.0</v>
       </c>
+      <c r="I15" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="G16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>0.213</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2142.2</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-123.0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1221.0</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10">
+        <v>54.66</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="G4" s="10">
         <v>324.0</v>
       </c>
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>324.0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>324.0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>324.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2142.2</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10">
+        <v>-123.0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1221.0</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10">
+        <v>54.66</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>324.0</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
